--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0FD3C9-CD4E-4CED-A5F5-EAAD59480F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AC598-085A-473F-9D73-C44B9AFC551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</t>
-  </si>
-  <si>
-    <t>S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</t>
+    <t>S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</t>
+  </si>
+  <si>
+    <t>S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05</v>
+        <v>S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07</v>
+        <v>S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80DD131-CD3C-4138-8D6A-CE9AF51A9022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCCE849-6AC1-4185-91DB-53FC4ECAEDC9}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1B004-711A-4D4C-BA31-3FB5E0C9FD4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FAEC0A-693F-4E18-843C-54D5332E3117}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.12151000977874253</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.25383896237870601</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.64374644043026463</v>
+        <v>0.12151000977874252</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>6.1341729440462511E-2</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>6.3366251517854272E-2</v>
+        <v>0.64374644043026452</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>5.6196606453970059E-2</v>
+        <v>6.1341729440462497E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5696D5F5-495F-46A9-B6ED-5C95017130A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA54139-48FC-41AB-AB11-BF4C54BE80E3}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AC598-085A-473F-9D73-C44B9AFC551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2C357-182F-4850-A710-5537D6D6C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</t>
-  </si>
-  <si>
-    <t>S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</t>
+    <t>S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18</t>
+  </si>
+  <si>
+    <t>S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</v>
+        <v>S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</v>
+        <v>S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCCE849-6AC1-4185-91DB-53FC4ECAEDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA34B90-276E-47D1-AEF5-01E77DBE0AAA}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FAEC0A-693F-4E18-843C-54D5332E3117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914F290-B0D9-48B7-8044-1E506B869315}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>6.3366251517854258E-2</v>
+        <v>0.2538389623787059</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>5.6196606453970052E-2</v>
+        <v>0.1215100097787425</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.12151000977874252</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.25383896237870596</v>
+        <v>6.134172944046249E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.64374644043026452</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>6.1341729440462497E-2</v>
+        <v>0.64374644043026441</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA54139-48FC-41AB-AB11-BF4C54BE80E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751E16C6-E264-4CC9-A177-F55684376FF0}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2C357-182F-4850-A710-5537D6D6C3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFBB6A-85E9-488B-B108-31A8602FCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18</t>
-  </si>
-  <si>
-    <t>S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</t>
+    <t>S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07</t>
+  </si>
+  <si>
+    <t>S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21</v>
+        <v>S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18</v>
+        <v>S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA34B90-276E-47D1-AEF5-01E77DBE0AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD037EA-EAE5-4545-83DE-CB3FB703870C}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B914F290-B0D9-48B7-8044-1E506B869315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70812F49-976C-4954-9977-9593F0928E32}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.2538389623787059</v>
+        <v>6.3366251517854272E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6670,7 +6670,7 @@
         <v>86</v>
       </c>
       <c r="N5">
-        <v>0.1215100097787425</v>
+        <v>0.12151000977874253</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>5.6196606453970052E-2</v>
+        <v>0.64374644043026463</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>6.134172944046249E-2</v>
+        <v>5.6196606453970059E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>6.3366251517854258E-2</v>
+        <v>6.1341729440462511E-2</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9">
-        <v>0.64374644043026441</v>
+        <v>0.25383896237870601</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751E16C6-E264-4CC9-A177-F55684376FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BD5EC-BC3B-4AB0-A699-78B835B5FA65}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFBB6A-85E9-488B-B108-31A8602FCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD67DEE-3FD6-4E04-AA33-FD86640FE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07</t>
-  </si>
-  <si>
-    <t>S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19</t>
+    <t>S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</t>
+  </si>
+  <si>
+    <t>S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19</v>
+        <v>S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07</v>
+        <v>S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD037EA-EAE5-4545-83DE-CB3FB703870C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774C7D78-D684-4B30-B95E-34BF272183CE}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70812F49-976C-4954-9977-9593F0928E32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A676F752-58FE-4E9F-B42B-4012232C3B3C}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>6.3366251517854272E-2</v>
+        <v>6.1341729440462497E-2</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.12151000977874253</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>5.6196606453970059E-2</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>6.1341729440462511E-2</v>
+        <v>0.12151000977874252</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.25383896237870601</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BD5EC-BC3B-4AB0-A699-78B835B5FA65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E55A87-6DDF-46F2-8FF6-34A9ED92EE89}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_IND/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD67DEE-3FD6-4E04-AA33-FD86640FE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC25F7BB-AD39-4BD7-AC49-5C1F55CFD09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</t>
-  </si>
-  <si>
-    <t>S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06</t>
+    <t>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</t>
+  </si>
+  <si>
+    <t>S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06</v>
+        <v>S5b0717h20,S5b0718h21,S5b0719h01,S5b0719h04,S5b0720h21,S5b0721h03,S6c1218h01,S6c1219h20,S6c1220h22,S6c1223h20,S4aH8,S5b0722h24,S6c1217h22,S6c1217h23,S6c1219h03,S6c1219h24,S6c1221h06,S6c1222h01,S6c1222h20,S6c1222h23,S6c1223h04,S6c1223h23,S1aH8,S5aH1,S5b0716h23,S5b0722h02,S6c1217h19,S6c1219h19,S6c1219h21,S6c1220h21,S6c1221h01,S6c1221h02,S6c1222h03,S5b0717h03,S5b0717h06,S5b0718h20,S5b0719h22,S6c1217h20,S6c1218h03,S6c1220h24,S6c1221h04,S6c1222h21,S6c1223h02,S6c1223h05,S3aH8,S5b0716h03,S5b0718h03,S5b0720h23,S6c1218h04,S6c1218h06,S6c1221h05,S6c1221h20,S6c1223h03,S2aH8,S5b0716h20,S5b0716h22,S5b0718h01,S5b0719h19,S5b0720h20,S6c1217h05,S6c1223h01,S6c1223h24,S5b0716h19,S5b0717h21,S5b0717h22,S5b0719h02,S5b0720h19,S5b0721h05,S5b0721h24,S6c1217h03,S6c1219h01,S5b0716h01,S5b0718h06,S5b0720h05,S5b0721h22,S5b0722h22,S6c1217h02,S6c1217h06,S6c1217h24,S6c1221h19,S6c1221h21,S6c1222h19,S4aH1,S5b0716h24,S5b0718h02,S5b0718h22,S5b0719h20,S5b0719h23,S5b0721h01,S5b0721h19,S6aH1,S6c1218h23,S6c1219h04,S6c1223h22,S5b0716h21,S5b0717h01,S5b0718h19,S5b0720h04,S5b0722h01,S6c1218h20,S6c1218h24,S6c1219h05,S6c1219h23,S6c1220h03,S6c1221h03,S6c1221h23,S6c1222h22,S6c1223h06,S6c1223h19,S5b0716h02,S5b0718h04,S5b0718h24,S5b0720h02,S5b0720h24,S6c1218h02,S6c1218h21,S6c1218h22,S6c1219h02,S6c1219h06,S6c1220h02,S3aH1,S5b0716h04,S5b0716h06,S5b0719h03,S6c1218h05,S6c1218h19,S6c1219h22,S6c1220h04,S6c1220h20,S6c1220h23,S6c1222h04,S6c1222h24,S6c1223h21,S2aH1,S5aH8,S5b0717h05,S5b0717h19,S5b0721h02,S5b0721h06,S5b0721h23,S5b0722h19,S5b0722h20,S6c1217h04,S6c1220h01,S6c1220h19,S6c1221h24,S6c1222h05,S5b0716h05,S5b0717h02,S5b0717h04,S5b0717h24,S5b0718h05,S5b0718h23,S5b0719h24,S5b0720h22,S5b0721h04,S5b0722h03,S5b0722h05,S5b0722h23,S6c1217h01,S6c1220h05,S5b0717h23,S5b0719h05,S5b0719h06,S5b0719h21,S5b0720h01,S5b0722h21,S6aH8,S6c1222h02,S6c1222h06,S1aH1,S5b0720h03,S5b0720h06,S5b0721h20,S5b0721h21,S5b0722h04,S5b0722h06,S6c1217h21,S6c1220h06,S6c1221h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16</v>
+        <v>S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0716h08,S5b0716h14,S5b0717h10,S5b0718h15,S5b0721h16,S6aH6,S6c1217h11,S6c1217h13,S6c1218h13,S6c1221h14,S6c1221h15,S6c1221h17,S6c1221h18,S6c1222h11,S5b0718h11,S5b0718h13,S5b0720h18,S6aH5,S6c1217h08,S6c1217h14,S6c1219h12,S6c1219h15,S6c1221h12,S6c1222h14,S6c1223h10,S6c1223h13,S6c1223h14,S6c1223h17,S2aH6,S3aH5,S5aH3,S5b0716h07,S5b0716h09,S5b0717h17,S5b0721h15,S6c1217h15,S6c1218h14,S6c1219h09,S6c1220h07,S6c1220h12,S6c1222h15,S6c1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S5b0716h13,S5b0716h15,S5b0717h07,S5b0719h11,S5b0720h16,S5b0722h14,S6c1218h08,S6c1218h18,S6c1219h10,S6c1220h11,S6c1222h08,S6c1223h07,S3aH2,S5b0718h16,S5b0718h18,S5b0722h18,S6c1217h16,S6c1219h17,S6c1220h18,S6c1221h13,S3aH7,S5b0717h13,S5b0717h15,S5b0720h12,S5b0721h18,S5b0722h07,S6c1217h17,S5aH4,S5b0717h14,S5b0718h08,S5b0718h12,S5b0719h13,S5b0720h10,S6aH3,S6aH4,S6c1218h15,S6c1219h07,S6c1220h17,S6c1222h16,S6c1223h18,S1aH3,S5b0718h07,S5b0718h17,S5b0719h14,S5b0721h08,S6c1217h10,S6c1217h18,S6c1220h16,S6c1221h09,S6c1222h07,S1aH4,S2aH2,S4aH6,S5b0717h11,S5b0717h16,S5b0719h09,S5b0719h15,S5b0720h17,S6c1218h07,S6c1220h09,S6c1220h13,S6c1220h15,S6c1221h10,S6c1222h13,S6c1222h17,S4aH5,S5b0716h17,S5b0717h18,S5b0720h08,S5b0721h11,S5b0721h17,S5b0722h16,S6c1220h08,S6c1221h08,S6c1221h16,S6c1222h10,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0716h18,S5b0719h16,S5b0719h18,S5b0720h09,S5b0721h13,S5b0722h08,S5b0722h13,S6aH2,S6c1223h12,S6c1223h15,S5b0716h16,S5b0717h09,S5b0718h09,S5b0719h12,S5b0721h09,S5b0722h15,S5b0722h17,S6aH7,S6c1219h13,S6c1220h14,S6c1222h18,S4aH2,S5b0716h10,S5b0717h12,S5b0719h10,S5b0720h07,S5b0720h11,S5b0720h14,S5b0720h15,S5b0721h10,S6c1219h16,S6c1221h11,S3aH3,S5b0716h12,S5b0717h08,S5b0718h14,S5b0719h07,S5b0719h08,S5b0719h17,S5b0721h07,S5b0721h14,S5b0722h11,S6c1217h12,S6c1218h09,S6c1219h14,S1aH6,S5b0718h10,S5b0721h12,S5b0722h09,S6c1217h09,S6c1218h10,S6c1218h11,S6c1218h16,S6c1219h08,S6c1223h08,S6c1223h16,S5b0716h11,S5b0720h13,S5b0722h10,S5b0722h12,S6c1217h07,S6c1218h12,S6c1218h17,S6c1219h11,S6c1219h18,S6c1220h10,S6c1221h07,S6c1222h09,S6c1222h12,S6c1223h09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774C7D78-D684-4B30-B95E-34BF272183CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14CAD0-168C-47E7-8A03-1E9EB24D1580}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A676F752-58FE-4E9F-B42B-4012232C3B3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91210DF8-1919-435B-BAA6-7F555736E575}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>6.1341729440462497E-2</v>
+        <v>0.64374644043026441</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>6.3366251517854258E-2</v>
+        <v>5.6196606453970052E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.64374644043026463</v>
+        <v>0.1215100097787425</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.25383896237870596</v>
+        <v>6.3366251517854258E-2</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>0.12151000977874252</v>
+        <v>0.25383896237870596</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>5.6196606453970052E-2</v>
+        <v>6.134172944046249E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E55A87-6DDF-46F2-8FF6-34A9ED92EE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5C2D1-8DAA-46FD-812B-8AA83F4C0378}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
